--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510132.2593047981</v>
+        <v>506850.5914291597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>70.84795259427446</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C6" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -993,7 +993,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>46.14449966726482</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1376,58 +1376,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79.65980772525472</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,67 +1604,67 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1746,10 +1746,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>88.12692860372137</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>181.2921930499176</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>149.3442691106105</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>57.01682479830529</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>82.37559015745698</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>87.40386596570143</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>83.03189205754171</v>
       </c>
     </row>
     <row r="31">
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.8330857361503</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>123.4225424657643</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>9.786812228052149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>52.59502717197273</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>55.57566235103583</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>78.00370092961367</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,73 +3740,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>52.62407629885327</v>
+        <v>37.15414074677638</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4056,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C6" t="n">
-        <v>816.3871559026832</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4659,10 +4659,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4708,22 +4708,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.8759037590757</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.4465497861263</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>917.4465497861263</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>715.2599551448923</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>487.0363368812813</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>487.0363368812813</v>
       </c>
       <c r="W9" t="n">
-        <v>555.4877027295624</v>
+        <v>487.0363368812813</v>
       </c>
       <c r="X9" t="n">
-        <v>347.6362025240296</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="Y9" t="n">
-        <v>139.8759037590757</v>
+        <v>279.1848366757484</v>
       </c>
     </row>
     <row r="10">
@@ -4951,13 +4951,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728.9050472788936</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C12" t="n">
-        <v>554.4520179977666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>405.5176083365153</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>246.2801533310598</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>99.74559535794478</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
         <v>19.28114311021272</v>
@@ -5130,13 +5130,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5157,13 +5157,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>728.9050472788936</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>728.9050472788936</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>728.9050472788936</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5227,22 +5227,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5382,19 +5382,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>470.5814199598456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
         <v>19.28114311021272</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5549,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y17" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="W17" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="X17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>257.2326523711826</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>108.2982427099313</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>108.2982427099313</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>108.2982427099313</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>108.2982427099313</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>108.2982427099313</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5625,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5698,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>780.9337281874871</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>780.9337281874871</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>780.9337281874871</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>780.9337281874871</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>780.9337281874871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.9337281874871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1339401916375</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6172,10 +6172,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
         <v>829.5248650203655</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>277.6959718698396</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="C27" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X27" t="n">
-        <v>485.4562706347935</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y27" t="n">
-        <v>277.6959718698396</v>
+        <v>245.0892324518013</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6415,19 +6415,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.2549444941228</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6652,16 +6652,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
         <v>829.5248650203655</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="34">
@@ -6874,31 +6874,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.2549444941228</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C36" t="n">
-        <v>511.3692755768984</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D36" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7114,13 +7114,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7172,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7260,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>907.9201228328222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>705.7335281915883</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.6083788665362</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>720.6083788665362</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D42" t="n">
-        <v>667.4527462414319</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>508.2152912359765</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>361.6807332628614</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7533,7 +7533,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.6083788665362</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>29.11673520316123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>816.3871559026832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D45" t="n">
-        <v>667.4527462414319</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E45" t="n">
-        <v>508.2152912359765</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7731,10 +7731,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8778,16 +8778,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>161.9526345551508</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C6" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22881,7 +22881,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23021,10 +23021,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23066,16 +23066,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>53.3196859459414</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23109,13 +23109,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>54.01333448537831</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23264,22 +23264,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,19 +23337,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>57.68370943795591</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23397,13 +23397,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23622,10 +23622,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23634,10 +23634,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.26970424769371</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,13 +23865,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>380.9243455904444</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,19 +24099,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>18.87253564490396</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,16 +24218,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>8.300811344790418</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,13 +24412,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>345.7616595229184</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>115.6916741900104</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>62.6936222359269</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>70.24121448969952</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>122.6508037197626</v>
       </c>
     </row>
     <row r="31">
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149.9007559273302</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25002,13 +25002,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>109.378044683661</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25114,10 +25114,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>162.9216867602636</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>94.85003839266602</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,13 +25448,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25518,7 +25518,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>116.107508752802</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>127.7692842738638</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,19 +25628,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>94.82098926578549</v>
+        <v>110.2909248178624</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,16 +25828,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2120531825935</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310077</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="15">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29260.68891881201</v>
+        <v>-29652.91916435756</v>
       </c>
       <c r="C6" t="n">
-        <v>51508.74261273575</v>
+        <v>51116.51236719018</v>
       </c>
       <c r="D6" t="n">
-        <v>51508.74261273575</v>
+        <v>51116.51236719018</v>
       </c>
       <c r="E6" t="n">
-        <v>85136.34261273575</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="F6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="G6" t="n">
-        <v>85136.34261273574</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="H6" t="n">
-        <v>85136.34261273574</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="I6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="J6" t="n">
-        <v>22076.4000136295</v>
+        <v>21684.16976808393</v>
       </c>
       <c r="K6" t="n">
-        <v>85136.34261273575</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="L6" t="n">
-        <v>85136.34261273575</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="M6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="N6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="O6" t="n">
-        <v>85136.34261273575</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="P6" t="n">
-        <v>85136.34261273575</v>
+        <v>84744.11236719019</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35498,16 +35498,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,13 +38099,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
